--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_13_12.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_13_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-689379.850742191</v>
+        <v>-691997.8531088181</v>
       </c>
     </row>
     <row r="7">
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>233.2982670166706</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>5.001539649746507</v>
       </c>
       <c r="H2" t="n">
-        <v>189.4423473679798</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,13 +707,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>41.50927658788061</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>30.95313829082832</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>52.99989981182444</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>252.5239959908895</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1114,10 +1114,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>78.32928359080385</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>162.8313269508547</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,13 +1133,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>220.6848845467163</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,16 +1184,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>231.8420908016143</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1303,10 +1303,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>8.217805738716324</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -1348,16 +1348,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>232.6311188183889</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1427,7 +1427,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>27.34574348918484</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>28.54004930889371</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634816</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1774,16 +1774,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>6.600826611594025</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>172.026033500083</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,13 +2005,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>3.006892987834117</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2050,10 +2050,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>107.4021082756248</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,25 +2239,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,10 +2293,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>266.8982277297044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,13 +2473,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2491,7 +2491,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>41.02686156550307</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>115.7077656527111</v>
       </c>
     </row>
     <row r="26">
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710066</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,22 +2716,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176115</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,13 +2767,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>281.6778446725268</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2840,19 +2840,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174139</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2947,25 +2947,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>34.22340015155995</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>118.1266457994465</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3095,7 +3095,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3187,25 +3187,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>107.4021082756248</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652577</v>
+        <v>56.98118882652651</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808191</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096056</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
         <v>193.1208028352485</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,7 +3664,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261733</v>
       </c>
       <c r="E40" t="n">
         <v>122.1493151545294</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541853</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652577</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808191</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3749,7 +3749,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4195,7 +4195,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>848.1875530107177</v>
+        <v>784.9973385935641</v>
       </c>
       <c r="C2" t="n">
-        <v>848.1875530107177</v>
+        <v>784.9973385935641</v>
       </c>
       <c r="D2" t="n">
-        <v>489.9218544039672</v>
+        <v>426.7316399868136</v>
       </c>
       <c r="E2" t="n">
-        <v>489.9218544039672</v>
+        <v>426.7316399868136</v>
       </c>
       <c r="F2" t="n">
-        <v>254.267039235613</v>
+        <v>426.7316399868136</v>
       </c>
       <c r="G2" t="n">
-        <v>242.6026930003059</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800313</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362819</v>
@@ -4343,37 +4343,37 @@
         <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400156</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2308.758267664336</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="V2" t="n">
-        <v>1977.695380320765</v>
+        <v>1897.83159218888</v>
       </c>
       <c r="W2" t="n">
-        <v>1624.926725050651</v>
+        <v>1545.062936918766</v>
       </c>
       <c r="X2" t="n">
-        <v>1624.926725050651</v>
+        <v>1171.597178657686</v>
       </c>
       <c r="Y2" t="n">
-        <v>1234.787393074839</v>
+        <v>1171.597178657686</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966398</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155128</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542614</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488059</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756909</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182533</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370162</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>423.1489515180662</v>
+        <v>684.9695361605191</v>
       </c>
       <c r="L3" t="n">
-        <v>717.852508549538</v>
+        <v>979.6730931919908</v>
       </c>
       <c r="M3" t="n">
-        <v>1081.114527508758</v>
+        <v>1342.935112151211</v>
       </c>
       <c r="N3" t="n">
-        <v>1468.399656105704</v>
+        <v>1730.220240748156</v>
       </c>
       <c r="O3" t="n">
-        <v>1991.864164601822</v>
+        <v>2062.290675924318</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.04689843412</v>
+        <v>2309.473409756615</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400156</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
-        <v>2426.617474780097</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.610846175227</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047139</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.368633815396</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087195</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881662</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
-        <v>1099.519478116708</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>388.8041944123877</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C4" t="n">
-        <v>388.8041944123877</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D4" t="n">
-        <v>388.8041944123877</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E4" t="n">
-        <v>388.8041944123877</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F4" t="n">
-        <v>241.9142469144773</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G4" t="n">
-        <v>241.9142469144773</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>93.17534877798354</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312203</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020476</v>
@@ -4510,28 +4510,28 @@
         <v>1636.446120074498</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="T4" t="n">
-        <v>1114.255484944676</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="U4" t="n">
-        <v>825.1371474485143</v>
+        <v>1605.180323821136</v>
       </c>
       <c r="V4" t="n">
-        <v>570.4526592426274</v>
+        <v>1350.495835615249</v>
       </c>
       <c r="W4" t="n">
-        <v>570.4526592426274</v>
+        <v>1061.078665578288</v>
       </c>
       <c r="X4" t="n">
-        <v>570.4526592426274</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="Y4" t="n">
-        <v>570.4526592426274</v>
+        <v>833.0891146802707</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1330.099343395678</v>
+        <v>797.0848490996759</v>
       </c>
       <c r="C5" t="n">
-        <v>1330.099343395678</v>
+        <v>428.1223321592641</v>
       </c>
       <c r="D5" t="n">
-        <v>1330.099343395678</v>
+        <v>69.85663355251364</v>
       </c>
       <c r="E5" t="n">
-        <v>944.3110907974333</v>
+        <v>69.85663355251364</v>
       </c>
       <c r="F5" t="n">
-        <v>533.3251860078258</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
         <v>187.5281822362819</v>
@@ -4571,10 +4571,10 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.894479532451</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U5" t="n">
-        <v>1975.31341879663</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="V5" t="n">
-        <v>1975.31341879663</v>
+        <v>2300.058434670803</v>
       </c>
       <c r="W5" t="n">
-        <v>1975.31341879663</v>
+        <v>1947.289779400689</v>
       </c>
       <c r="X5" t="n">
-        <v>1720.238675371489</v>
+        <v>1573.824021139609</v>
       </c>
       <c r="Y5" t="n">
-        <v>1330.099343395678</v>
+        <v>1183.684689163798</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G6" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H6" t="n">
         <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310614</v>
+        <v>684.9695361605189</v>
       </c>
       <c r="L6" t="n">
-        <v>870.3292415458916</v>
+        <v>979.6730931919907</v>
       </c>
       <c r="M6" t="n">
-        <v>1233.591260505112</v>
+        <v>1342.935112151211</v>
       </c>
       <c r="N6" t="n">
-        <v>1867.77024428415</v>
+        <v>1730.220240748156</v>
       </c>
       <c r="O6" t="n">
-        <v>2199.840679460312</v>
+        <v>2062.290675924318</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2309.473409756615</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>666.9516006271326</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="C7" t="n">
-        <v>498.0154176992257</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="D7" t="n">
-        <v>347.89877828689</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="E7" t="n">
-        <v>199.9856847044969</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="F7" t="n">
-        <v>199.9856847044969</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G7" t="n">
-        <v>199.9856847044969</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020476</v>
@@ -4762,13 +4762,13 @@
         <v>927.7205539329318</v>
       </c>
       <c r="W7" t="n">
-        <v>848.6000654573724</v>
+        <v>638.3033838959711</v>
       </c>
       <c r="X7" t="n">
-        <v>848.6000654573724</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="Y7" t="n">
-        <v>848.6000654573724</v>
+        <v>473.8272960668249</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1619.798686923957</v>
+        <v>1901.535346136983</v>
       </c>
       <c r="C8" t="n">
-        <v>1250.836169983545</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D8" t="n">
-        <v>892.5704713767946</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>892.5704713767946</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
@@ -4805,7 +4805,7 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4832,22 +4832,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410102</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V8" t="n">
-        <v>2630.721789066531</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="W8" t="n">
-        <v>2396.53785896389</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="X8" t="n">
-        <v>2396.53785896389</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="Y8" t="n">
-        <v>2006.398526988078</v>
+        <v>2288.135186201105</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>777.6936570343842</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C10" t="n">
-        <v>608.7574741064773</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D10" t="n">
-        <v>458.6408346941415</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E10" t="n">
-        <v>310.7277411117484</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F10" t="n">
-        <v>163.8377936138381</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
         <v>163.8377936138381</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1918.993734211002</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T10" t="n">
-        <v>1697.227118780528</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U10" t="n">
-        <v>1408.124251906171</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="V10" t="n">
-        <v>1408.124251906171</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="W10" t="n">
-        <v>1408.124251906171</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="X10" t="n">
-        <v>1180.134701008154</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="Y10" t="n">
-        <v>959.3421218646239</v>
+        <v>1091.613680441807</v>
       </c>
     </row>
     <row r="11">
@@ -5036,52 +5036,52 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,28 +5112,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273908</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516145</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5188,61 +5188,61 @@
         <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832664</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855605</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2131.487582220359</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V13" t="n">
-        <v>1876.803094014472</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W13" t="n">
-        <v>1587.385923977512</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X13" t="n">
-        <v>1359.396373079494</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y13" t="n">
-        <v>1138.603793935964</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,25 +5264,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192608</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014779</v>
@@ -5291,37 +5291,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.5840502527391</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>95.5840502527391</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>429.5088224239598</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L15" t="n">
-        <v>924.8344286397187</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M15" t="n">
-        <v>1522.212916266271</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N15" t="n">
-        <v>2149.810879820878</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>2149.810879820878</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>734.6461798836004</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>565.7099969556936</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>415.5933575433578</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>267.6802639609647</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038378</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797781</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910813</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570822</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279807</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853365</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580265</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580265</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580265</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.963083580265</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U16" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>916.2946447138402</v>
       </c>
     </row>
     <row r="17">
@@ -5492,31 +5492,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168624</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,37 +5525,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273908</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273908</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>95.58405025273908</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>95.58405025273908</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>692.9625378792912</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1320.560501433898</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>1872.470231673185</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2296.093381168253</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>874.8686257536381</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257312</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
         <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2338.476105524075</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>2049.400878868273</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1794.716390662386</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1505.299220625425</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1277.309669727408</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>1056.517090583878</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5741,31 +5741,31 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192603</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>95.58405025273906</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>590.9096564684979</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M21" t="n">
-        <v>1188.28814409505</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N21" t="n">
-        <v>1731.250242493492</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O21" t="n">
-        <v>2283.159972732779</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>788.0191461778176</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1707.866911086565</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1707.866911086565</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1418.449741049605</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1190.460190151587</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>969.6676110080573</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5969,46 +5969,46 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516145</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>579.1554649516145</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M24" t="n">
-        <v>1176.533952578166</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N24" t="n">
-        <v>1804.131916132773</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>916.309900062227</v>
+        <v>866.4638174991043</v>
       </c>
       <c r="C25" t="n">
-        <v>747.3737171343201</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D25" t="n">
-        <v>597.2570777219844</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E25" t="n">
-        <v>449.3439841395913</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F25" t="n">
-        <v>302.4540366416809</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>135.2579373565608</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6145,52 +6145,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832664</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2379.917379832664</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>2090.842153176862</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1836.157664970975</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1546.740494934014</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>1318.750944035997</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y25" t="n">
-        <v>1097.958364892467</v>
+        <v>866.4638174991043</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
         <v>1948.813509611463</v>
@@ -6212,31 +6212,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068009</v>
@@ -6251,25 +6251,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516145</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>634.560372056552</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1231.938859683104</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235166</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258107</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1759.983708831312</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1505.299220625425</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6455,16 +6455,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6479,31 +6479,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
         <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,31 +6534,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273908</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273908</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>95.58405025273908</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>590.909656468498</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1188.28814409505</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1815.886107649657</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2367.795837888944</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2367.795837888944</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>762.5477693179095</v>
+        <v>866.4638174991043</v>
       </c>
       <c r="C31" t="n">
-        <v>593.6115863900026</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D31" t="n">
-        <v>443.4949469776668</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E31" t="n">
-        <v>295.5818533952737</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235166</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258107</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602305</v>
+        <v>2040.996070613739</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396418</v>
+        <v>1786.311582407852</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359457</v>
+        <v>1496.894412370891</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614396</v>
+        <v>1268.904861472874</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179095</v>
+        <v>1048.112282329344</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,40 +6710,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273908</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516145</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>579.1554649516145</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438167</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>705.9324428257312</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D34" t="n">
-        <v>555.8158034133954</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6911,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332388</v>
@@ -6950,7 +6950,7 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516145</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>579.1554649516145</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438167</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,67 +7069,67 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319324</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150023</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580121</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345483</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384027</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380731</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311326</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N37" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
         <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W37" t="n">
         <v>1483.798285518751</v>
@@ -7154,37 +7154,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273906</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>429.5088224239598</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>924.8344286397187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>924.8344286397187</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1552.432392194326</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319335</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656828</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150035</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942666</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580125</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345487</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7330,28 +7330,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380731</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311326</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N40" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
         <v>2596.781734931274</v>
@@ -7363,19 +7363,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838287</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594056</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518752</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582391</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400517</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="41">
@@ -7391,10 +7391,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
         <v>793.7736536168611</v>
@@ -7409,19 +7409,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7430,7 +7430,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>680.0291294438176</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7564,28 +7564,28 @@
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979285</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.769117656414</v>
+        <v>1785.769117656413</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382517</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973195</v>
       </c>
       <c r="Q43" t="n">
         <v>2639.297491717214</v>
@@ -7597,7 +7597,7 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U43" t="n">
         <v>1978.840049838286</v>
@@ -7634,7 +7634,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1731.250242493492</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F46" t="n">
         <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345474</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
@@ -7819,13 +7819,13 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382517</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973195</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R46" t="n">
         <v>2596.781734931273</v>
@@ -7834,7 +7834,7 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U46" t="n">
         <v>1978.840049838285</v>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8070,16 +8070,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3273467878354</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>114.3555089013349</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154985</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,19 +8292,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>280.1079373569277</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>249.3877325071649</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>138.9393975111053</v>
       </c>
       <c r="R6" t="n">
         <v>20.93778120154988</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>-1.534772309241816e-12</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -22556,16 +22556,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>173.5777787250408</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>94.5827049237768</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247044</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22610,10 +22610,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22705,19 +22705,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -22768,10 +22768,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>152.4862366927525</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23464,13 +23464,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>257.6444250803486</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>138.8202214113372</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>114.1584408891611</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23893,13 +23893,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>145.6085800303782</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>110.0033420516635</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24127,22 +24127,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24181,10 +24181,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28624665953976</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24361,13 +24361,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>99.26785128072079</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>102.8768876993837</v>
       </c>
     </row>
     <row r="26">
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,13 +24655,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>4.506629716717327</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>111.1976478713713</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,16 +24883,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>168.0578285897976</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>110.0033420516635</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>-7.105427357601002e-13</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,7 +25360,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>-7.389644451905042e-13</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25552,7 +25552,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25564,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>-1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1017464.19123632</v>
+        <v>1017464.191236321</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1178291.84109567</v>
+        <v>1178291.841095669</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1178291.84109567</v>
+        <v>1178291.841095669</v>
       </c>
     </row>
     <row r="7">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>207271.1201254691</v>
+        <v>207271.1201254693</v>
       </c>
       <c r="C2" t="n">
         <v>246312.530959285</v>
@@ -26320,19 +26320,19 @@
         <v>246312.530959285</v>
       </c>
       <c r="E2" t="n">
-        <v>242143.9799070017</v>
+        <v>242143.9799070018</v>
       </c>
       <c r="F2" t="n">
-        <v>242143.9799070019</v>
+        <v>242143.9799070018</v>
       </c>
       <c r="G2" t="n">
         <v>242143.9799070018</v>
       </c>
       <c r="H2" t="n">
-        <v>242143.9799070017</v>
+        <v>242143.9799070018</v>
       </c>
       <c r="I2" t="n">
-        <v>242143.9799070018</v>
+        <v>242143.9799070019</v>
       </c>
       <c r="J2" t="n">
         <v>242143.9799070018</v>
@@ -26344,13 +26344,13 @@
         <v>242143.9799070018</v>
       </c>
       <c r="M2" t="n">
-        <v>246312.5309592848</v>
+        <v>246312.5309592847</v>
       </c>
       <c r="N2" t="n">
-        <v>246312.530959285</v>
+        <v>246312.5309592847</v>
       </c>
       <c r="O2" t="n">
-        <v>246312.530959285</v>
+        <v>246312.5309592849</v>
       </c>
       <c r="P2" t="n">
         <v>246312.530959285</v>
@@ -26369,10 +26369,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403377</v>
+        <v>192627.1404403378</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073556</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819071</v>
+        <v>48293.97000819074</v>
       </c>
       <c r="M3" t="n">
         <v>104482.7459291436</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>61243.63068473974</v>
+        <v>61243.63068474003</v>
       </c>
       <c r="C4" t="n">
         <v>135522.1369769831</v>
       </c>
       <c r="D4" t="n">
-        <v>87914.29116309559</v>
+        <v>87914.29116309556</v>
       </c>
       <c r="E4" t="n">
-        <v>8727.256391744286</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="F4" t="n">
+        <v>8727.256391744297</v>
+      </c>
+      <c r="G4" t="n">
+        <v>8727.256391744282</v>
+      </c>
+      <c r="H4" t="n">
+        <v>8727.256391744282</v>
+      </c>
+      <c r="I4" t="n">
         <v>8727.256391744284</v>
       </c>
-      <c r="G4" t="n">
-        <v>8727.256391744284</v>
-      </c>
-      <c r="H4" t="n">
-        <v>8727.256391744284</v>
-      </c>
-      <c r="I4" t="n">
-        <v>8727.256391744268</v>
-      </c>
       <c r="J4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744326</v>
       </c>
       <c r="K4" t="n">
-        <v>8727.256391744244</v>
+        <v>8727.256391744295</v>
       </c>
       <c r="L4" t="n">
-        <v>8727.256391744264</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="M4" t="n">
         <v>16718.11565483775</v>
       </c>
       <c r="N4" t="n">
+        <v>16718.11565483775</v>
+      </c>
+      <c r="O4" t="n">
         <v>16718.11565483778</v>
       </c>
-      <c r="O4" t="n">
-        <v>16718.11565483775</v>
-      </c>
       <c r="P4" t="n">
-        <v>16718.11565483775</v>
+        <v>16718.11565483776</v>
       </c>
     </row>
     <row r="5">
@@ -26470,7 +26470,7 @@
         <v>92937.77243984473</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26479,7 +26479,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1061662.066575035</v>
+        <v>-1061987.411665317</v>
       </c>
       <c r="C6" t="n">
-        <v>17852.62154245719</v>
+        <v>17852.6215424572</v>
       </c>
       <c r="D6" t="n">
         <v>-142162.8412055416</v>
       </c>
       <c r="E6" t="n">
-        <v>-193118.2681160053</v>
+        <v>-193153.0060414404</v>
       </c>
       <c r="F6" t="n">
-        <v>132294.1936913505</v>
+        <v>132259.4557659146</v>
       </c>
       <c r="G6" t="n">
-        <v>132294.1936913504</v>
+        <v>132259.4557659147</v>
       </c>
       <c r="H6" t="n">
-        <v>132294.1936913503</v>
+        <v>132259.4557659148</v>
       </c>
       <c r="I6" t="n">
-        <v>132294.1936913504</v>
+        <v>132259.4557659148</v>
       </c>
       <c r="J6" t="n">
-        <v>-35310.98411863229</v>
+        <v>-35345.72204406779</v>
       </c>
       <c r="K6" t="n">
-        <v>132294.1936913504</v>
+        <v>132259.4557659146</v>
       </c>
       <c r="L6" t="n">
-        <v>84000.2236831597</v>
+        <v>83965.485757724</v>
       </c>
       <c r="M6" t="n">
-        <v>21947.55352138802</v>
+        <v>21947.55352138798</v>
       </c>
       <c r="N6" t="n">
-        <v>126430.2994505318</v>
+        <v>126430.2994505316</v>
       </c>
       <c r="O6" t="n">
-        <v>126430.2994505322</v>
+        <v>126430.2994505317</v>
       </c>
       <c r="P6" t="n">
         <v>126430.2994505318</v>
@@ -26725,7 +26725,7 @@
         <v>24.28464749203973</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
     </row>
     <row r="3">
@@ -26787,22 +26787,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26814,10 +26814,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26966,7 +26966,7 @@
         <v>155.711808475759</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,13 +27033,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000392</v>
+        <v>640.5848321000386</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="M4" t="n">
         <v>341.3068326973557</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27391,10 +27391,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>311.9634581994306</v>
       </c>
       <c r="H2" t="n">
-        <v>111.5762051944256</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,13 +27427,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27552,10 +27552,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>63.28731861601995</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>255.2740158303723</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>274.7523586583105</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>117.2071046875795</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27834,10 +27834,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>208.1937147457871</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>62.87832843818242</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,13 +27853,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>144.5880072242912</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,16 +27904,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>117.3988779157987</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28023,10 +28023,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28056,10 +28056,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>181.5512195927256</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28068,16 +28068,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>19.50652450543913</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28147,7 +28147,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -28302,7 +28302,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>1.885306725550132e-12</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-3.348081657766396e-13</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28509,7 +28509,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>3.393552105990239e-12</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -28527,7 +28527,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>-9.426533627750662e-13</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -29053,7 +29053,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29275,7 +29275,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -29566,7 +29566,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30469,7 +30469,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203974</v>
       </c>
     </row>
   </sheetData>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,34 +31829,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558009</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31865,13 +31865,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32078,37 +32078,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422587</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>162.5000833330458</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>541.2980521010952</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>362.5355639238077</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159405</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862124</v>
+        <v>169.2687847673337</v>
       </c>
       <c r="N21" t="n">
-        <v>679.7882761221637</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>198.5607970756945</v>
+        <v>549.9198891312103</v>
       </c>
       <c r="P24" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P25" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460007</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33026,37 +33026,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>194.5189324111242</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>327.1185924414061</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>244.0266243181822</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437245</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460007</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>244.0266243181822</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437245</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460007</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>452.802740447864</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34214,25 +34214,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34375,7 +34375,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
         <v>981.2715114159425</v>
@@ -34442,7 +34442,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34457,19 +34457,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>191.332301678856</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34778,7 +34778,7 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434849</v>
+        <v>451.0527332560635</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378503</v>
@@ -34790,16 +34790,16 @@
         <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>528.7520287839585</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>230.8362312321895</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977097</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -35012,19 +35012,19 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
-        <v>577.788297994778</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
         <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>640.5848321000389</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
         <v>335.4246819961231</v>
@@ -35033,7 +35033,7 @@
         <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308546</v>
+        <v>255.4201198419598</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,28 +35483,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113564</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,31 +35720,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678997</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>23.94570355317166</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>407.323644686765</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096384</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998974</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>222.5537898377862</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193496</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.412613764194</v>
+        <v>27.13475084531539</v>
       </c>
       <c r="N21" t="n">
-        <v>548.4465640388304</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.866084390239</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754089</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>55.96455263125009</v>
+        <v>407.3236446867659</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243139</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>55.96455263124998</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,31 +36905,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>187.1368183553845</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>101.8925903961639</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992801</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243139</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>101.8925903961639</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992801</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.3311307549932</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
         <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111713</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819473</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243139</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>310.2064960034196</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549932</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
         <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111713</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819473</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,25 +37862,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>101.892590396165</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38023,7 +38023,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38105,19 +38105,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>59.99058959552271</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,25 +38175,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
